--- a/data/out/wiki/third_teams_eu_uefa_men.xlsx
+++ b/data/out/wiki/third_teams_eu_uefa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -566,7 +566,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Northern Ireland</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Northern Ireland</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -611,34 +611,34 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(2021,)</t>
+          <t>(2016,)</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -683,16 +683,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -755,16 +755,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -773,16 +773,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -791,16 +791,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -809,16 +809,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -836,7 +836,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -854,25 +854,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>(2024,)</t>
+          <t>(2021,)</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -899,16 +899,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -917,16 +917,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -935,16 +935,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -971,16 +971,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -989,16 +989,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D31" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D32" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1025,16 +1025,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1043,16 +1043,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1061,16 +1061,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1100,6 +1100,24 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>(2024,)</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
